--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H2">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I2">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J2">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.574348666666667</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N2">
-        <v>4.723046</v>
+        <v>1.733921</v>
       </c>
       <c r="O2">
-        <v>0.0919647296207302</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P2">
-        <v>0.107609035279699</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q2">
-        <v>0.7608396784031111</v>
+        <v>0.01994105478944445</v>
       </c>
       <c r="R2">
-        <v>6.847557105628001</v>
+        <v>0.179469493105</v>
       </c>
       <c r="S2">
-        <v>0.03989479657486127</v>
+        <v>0.003058558635129506</v>
       </c>
       <c r="T2">
-        <v>0.04668138089249541</v>
+        <v>0.003388267173868432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,14 +587,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H3">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I3">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J3">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4551080043963893</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P3">
-        <v>0.532527345028208</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q3">
-        <v>3.765185078362667</v>
+        <v>0.2688030370266667</v>
       </c>
       <c r="R3">
-        <v>33.886665705264</v>
+        <v>2.41922733324</v>
       </c>
       <c r="S3">
-        <v>0.1974283111565011</v>
+        <v>0.04122900512174223</v>
       </c>
       <c r="T3">
-        <v>0.2310132394024064</v>
+        <v>0.04567343684726767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H4">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I4">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J4">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.4663515</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N4">
-        <v>14.932703</v>
+        <v>0.150455</v>
       </c>
       <c r="O4">
-        <v>0.436142902451617</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P4">
-        <v>0.3402240342245802</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q4">
-        <v>3.608283599675667</v>
+        <v>0.001730316086111111</v>
       </c>
       <c r="R4">
-        <v>21.649701598054</v>
+        <v>0.015572844775</v>
       </c>
       <c r="S4">
-        <v>0.189201147468547</v>
+        <v>0.000265395851049967</v>
       </c>
       <c r="T4">
-        <v>0.1475910242029209</v>
+        <v>0.0002940051695806066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,60 +726,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H5">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I5">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J5">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2873323333333333</v>
+        <v>3.489664</v>
       </c>
       <c r="N5">
-        <v>0.8619969999999999</v>
+        <v>6.979328</v>
       </c>
       <c r="O5">
-        <v>0.01678436353126363</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P5">
-        <v>0.01963958546751284</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q5">
-        <v>0.1388598629495555</v>
+        <v>0.1203992241066667</v>
       </c>
       <c r="R5">
-        <v>1.249738766546</v>
+        <v>0.72239534464</v>
       </c>
       <c r="S5">
-        <v>0.007281147582119819</v>
+        <v>0.01846683088947058</v>
       </c>
       <c r="T5">
-        <v>0.008519758284206496</v>
+        <v>0.01363835374164152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5109063333333334</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H6">
-        <v>1.532719</v>
+        <v>0.103505</v>
       </c>
       <c r="I6">
-        <v>0.4586105174212687</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J6">
-        <v>0.4586105174212687</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.574348666666667</v>
+        <v>0.0451</v>
       </c>
       <c r="N6">
-        <v>4.723046</v>
+        <v>0.1353</v>
       </c>
       <c r="O6">
-        <v>0.0919647296207302</v>
+        <v>0.003772825594848836</v>
       </c>
       <c r="P6">
-        <v>0.107609035279699</v>
+        <v>0.004179531158543795</v>
       </c>
       <c r="Q6">
-        <v>0.8043447046748889</v>
+        <v>0.001556025166666667</v>
       </c>
       <c r="R6">
-        <v>7.239102342074</v>
+        <v>0.0140042265</v>
       </c>
       <c r="S6">
-        <v>0.04217599223587015</v>
+        <v>0.0002386631128713604</v>
       </c>
       <c r="T6">
-        <v>0.0493506353488263</v>
+        <v>0.0002643906779053941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>1.532719</v>
       </c>
       <c r="I7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.791016</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N7">
-        <v>23.373048</v>
+        <v>1.733921</v>
       </c>
       <c r="O7">
-        <v>0.4551080043963893</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P7">
-        <v>0.532527345028208</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q7">
-        <v>3.980479417501333</v>
+        <v>0.2952904067998889</v>
       </c>
       <c r="R7">
-        <v>35.824314757512</v>
+        <v>2.657613661199</v>
       </c>
       <c r="S7">
-        <v>0.2087173173787891</v>
+        <v>0.0452916374346849</v>
       </c>
       <c r="T7">
-        <v>0.2442226412443609</v>
+        <v>0.05017401550132311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +918,40 @@
         <v>1.532719</v>
       </c>
       <c r="I8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.4663515</v>
+        <v>7.791016</v>
       </c>
       <c r="N8">
-        <v>14.932703</v>
+        <v>23.373048</v>
       </c>
       <c r="O8">
-        <v>0.436142902451617</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P8">
-        <v>0.3402240342245802</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q8">
-        <v>3.814606268242834</v>
+        <v>3.980479417501333</v>
       </c>
       <c r="R8">
-        <v>22.887637609457</v>
+        <v>35.824314757512</v>
       </c>
       <c r="S8">
-        <v>0.20001972216295</v>
+        <v>0.6105258634963686</v>
       </c>
       <c r="T8">
-        <v>0.1560303203748862</v>
+        <v>0.6763397367383919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,54 +980,54 @@
         <v>1.532719</v>
       </c>
       <c r="I9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2873323333333333</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N9">
-        <v>0.8619969999999999</v>
+        <v>0.150455</v>
       </c>
       <c r="O9">
-        <v>0.01678436353126363</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P9">
-        <v>0.01963958546751284</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q9">
-        <v>0.1467999088714444</v>
+        <v>0.02562280412722222</v>
       </c>
       <c r="R9">
-        <v>1.321199179843</v>
+        <v>0.230605237145</v>
       </c>
       <c r="S9">
-        <v>0.007697485643659486</v>
+        <v>0.00393002524926771</v>
       </c>
       <c r="T9">
-        <v>0.009006920453195294</v>
+        <v>0.004353676725901335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,60 +1036,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.119852</v>
+        <v>0.5109063333333334</v>
       </c>
       <c r="H10">
-        <v>0.359556</v>
+        <v>1.532719</v>
       </c>
       <c r="I10">
-        <v>0.1075840797967022</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J10">
-        <v>0.1075840797967022</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.574348666666667</v>
+        <v>3.489664</v>
       </c>
       <c r="N10">
-        <v>4.723046</v>
+        <v>6.979328</v>
       </c>
       <c r="O10">
-        <v>0.0919647296207302</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P10">
-        <v>0.107609035279699</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q10">
-        <v>0.1886888363973333</v>
+        <v>1.782891438805333</v>
       </c>
       <c r="R10">
-        <v>1.698199527576</v>
+        <v>10.697348632832</v>
       </c>
       <c r="S10">
-        <v>0.009893940809998784</v>
+        <v>0.2734598577274379</v>
       </c>
       <c r="T10">
-        <v>0.01157701903837728</v>
+        <v>0.2019589769434815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,170 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.119852</v>
+        <v>0.5109063333333334</v>
       </c>
       <c r="H11">
-        <v>0.359556</v>
+        <v>1.532719</v>
       </c>
       <c r="I11">
-        <v>0.1075840797967022</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J11">
-        <v>0.1075840797967022</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>7.791016</v>
+        <v>0.0451</v>
       </c>
       <c r="N11">
-        <v>23.373048</v>
+        <v>0.1353</v>
       </c>
       <c r="O11">
-        <v>0.4551080043963893</v>
+        <v>0.003772825594848836</v>
       </c>
       <c r="P11">
-        <v>0.532527345028208</v>
+        <v>0.004179531158543795</v>
       </c>
       <c r="Q11">
-        <v>0.933768849632</v>
+        <v>0.02304187563333333</v>
       </c>
       <c r="R11">
-        <v>8.403919646687999</v>
+        <v>0.2073768807</v>
       </c>
       <c r="S11">
-        <v>0.04896237586109906</v>
+        <v>0.003534162481977476</v>
       </c>
       <c r="T11">
-        <v>0.05729146438144071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.119852</v>
-      </c>
-      <c r="H12">
-        <v>0.359556</v>
-      </c>
-      <c r="I12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.4663515</v>
-      </c>
-      <c r="N12">
-        <v>14.932703</v>
-      </c>
-      <c r="O12">
-        <v>0.436142902451617</v>
-      </c>
-      <c r="P12">
-        <v>0.3402240342245802</v>
-      </c>
-      <c r="Q12">
-        <v>0.894857159978</v>
-      </c>
-      <c r="R12">
-        <v>5.369142959867999</v>
-      </c>
-      <c r="S12">
-        <v>0.04692203282012009</v>
-      </c>
-      <c r="T12">
-        <v>0.03660268964677319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.119852</v>
-      </c>
-      <c r="H13">
-        <v>0.359556</v>
-      </c>
-      <c r="I13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2873323333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.8619969999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.01678436353126363</v>
-      </c>
-      <c r="P13">
-        <v>0.01963958546751284</v>
-      </c>
-      <c r="Q13">
-        <v>0.03443735481466666</v>
-      </c>
-      <c r="R13">
-        <v>0.309936193332</v>
-      </c>
-      <c r="S13">
-        <v>0.001805730305484326</v>
-      </c>
-      <c r="T13">
-        <v>0.002112906730111055</v>
+        <v>0.003915140480638402</v>
       </c>
     </row>
   </sheetData>
